--- a/target/test-classes/Auto (1).xlsx
+++ b/target/test-classes/Auto (1).xlsx
@@ -146,10 +146,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -181,14 +181,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
